--- a/Ссылки.xlsx
+++ b/Ссылки.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/lll/prj/Проект СОП Бот/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/lll/prj/Проект СОП Бот/PS_prj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29DA7108-6380-8249-892A-0FD30472776F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFB97D0-A427-B344-A1AD-F76F95FB3318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9DF8B5C2-95FE-9043-BF7D-E76042ADDAC0}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="list1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -44,78 +28,78 @@
     <t>Оружие</t>
   </si>
   <si>
+    <t>https://www.aeroflot.ru/ru-ru/information/airport/security#guns</t>
+  </si>
+  <si>
+    <t>Животные</t>
+  </si>
+  <si>
+    <t>https://www.aeroflot.ru/ru-ru/information/special/animals#</t>
+  </si>
+  <si>
     <t>коляски</t>
   </si>
   <si>
-    <t>Животные</t>
+    <t>https://www.aeroflot.ru/ru-ru/information/special/disabled</t>
   </si>
   <si>
     <t>спортивный инвентарь</t>
   </si>
   <si>
-    <t>https://www.aeroflot.ru/ru-ru/information/airport/security#guns</t>
-  </si>
-  <si>
-    <t>https://www.aeroflot.ru/ru-ru/information/special/animals#</t>
-  </si>
-  <si>
-    <t>https://www.aeroflot.ru/ru-ru/information/special/disabled</t>
-  </si>
-  <si>
     <t>https://www.aeroflot.ru/ru-ru/information/preparation/luggage#prepaid_baggage_rules#aria-baggage_tab3</t>
   </si>
   <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>https://helpcenter.s7.ru/ru/articles/opasnye-predmety-i-veshestva-mogu-li-ya-provezti-v-samolete-oruzhie-i-boepripasy/</t>
+  </si>
+  <si>
+    <t>https://www.s7.ru/ru/info/perevozka-zhivotnykh/</t>
+  </si>
+  <si>
+    <t>https://www.s7.ru/ru/info/disabilities/</t>
+  </si>
+  <si>
+    <t>https://helpcenter.s7.ru/ru/articles/kakoe-sportivnoe-oborudovanie-ya-mogu-provezti-besplatno/</t>
+  </si>
+  <si>
+    <t>Прах</t>
+  </si>
+  <si>
+    <t>https://helpcenter.s7.ru/ru/articles/ruchnaya-klad-mne-nuzhno-perevezti-urnu-s-prahom-kak-eto-sdelat/</t>
+  </si>
+  <si>
+    <t>Utair</t>
+  </si>
+  <si>
     <t>https://tldrify.com/19gh</t>
   </si>
   <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>Utair</t>
-  </si>
-  <si>
-    <t>Прах</t>
+    <t>https://tldrify.com/19gl</t>
+  </si>
+  <si>
+    <t>Помощь</t>
   </si>
   <si>
     <t>https://www.utair.ru/support/4</t>
   </si>
   <si>
-    <t>Помощь</t>
-  </si>
-  <si>
-    <t>https://tldrify.com/19gl</t>
-  </si>
-  <si>
-    <t>https://www.s7.ru/ru/info/perevozka-zhivotnykh/</t>
-  </si>
-  <si>
-    <t>https://helpcenter.s7.ru/ru/articles/opasnye-predmety-i-veshestva-mogu-li-ya-provezti-v-samolete-oruzhie-i-boepripasy/</t>
-  </si>
-  <si>
-    <t>https://www.s7.ru/ru/info/disabilities/</t>
-  </si>
-  <si>
-    <t>https://helpcenter.s7.ru/ru/articles/kakoe-sportivnoe-oborudovanie-ya-mogu-provezti-besplatno/</t>
-  </si>
-  <si>
     <t>Уральские авиалинии</t>
   </si>
   <si>
-    <t>https://helpcenter.s7.ru/ru/articles/ruchnaya-klad-mne-nuzhno-perevezti-urnu-s-prahom-kak-eto-sdelat/</t>
+    <t>https://www.uralairlines.ru/rules/opasnye-veshchestva-i-predmety/ognestrelnoe-i-strelkovoe-oruzhie/</t>
   </si>
   <si>
     <t>https://www.uralairlines.ru/rules/zhivotnye/</t>
   </si>
   <si>
-    <t>https://www.uralairlines.ru/rules/opasnye-veshchestva-i-predmety/ognestrelnoe-i-strelkovoe-oruzhie/</t>
+    <t>https://tldrify.com/19go</t>
   </si>
   <si>
     <t>https://www.uralairlines.ru/rules/pravila-provoza-sportivnogo-snaryazheniya/</t>
   </si>
   <si>
-    <t>https://tldrify.com/19go</t>
-  </si>
-  <si>
     <t>https://www.uralairlines.ru/rules/provoz-bagazha/provoz-osobykh-kategoriy-bagazha-urna-s-prakhom/</t>
   </si>
   <si>
@@ -128,12 +112,12 @@
     <t>https://www.yakutia.aero/bagazh/perevozka-zhivotnykh/#:~:text=%D0%9A%D0%BE%D0%BC%D0%BD%D0%B0%D1%82%D0%BD%D1%8B%D0%B5%20%D0%BF%D1%80%D0%B8%D1%80%D1%83%D1%87%D0%B5%D0%BD%D0%BD%D1%8B%D0%B5%20%D0%B6%D0%B8%D0%B2%D0%BE%D1%82%D0%BD%D1%8B%D0%B5/%D0%BF%D1%82%D0%B8%D1%86%D1%8B%20%D0%B2%20%D0%BA%D0%B0%D1%87%D0%B5%D1%81%D1%82%D0%B2%D0%B5%20%D0%BE%D1%81%D0%BE%D0%B1%D0%BE%D0%B3%D0%BE%20%D0%B2%D0%B8%D0%B4%D0%B0%20%D0%BD%D0%B5%D1%81%D1%82%D0%B0%D0%BD%D0%B4%D0%B0%D1%80%D1%82%D0%BD%D0%BE%D0%B3%D0%BE%20%D0%B1%D0%B0%D0%B3%D0%B0%D0%B6%D0%B0%20%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D1%8F%D1%82%D1%81%D1%8F%20%D0%B2%20%D0%BA%D0%BE%D0%BD%D1%82%D0%B5%D0%B9%D0%BD%D0%B5%D1%80%D0%B5%20(%D0%BA%D0%BB%D0%B5%D1%82%D0%BA%D0%B5)%20%D0%B2%C2%A0%D0%BF%D0%B0%D1%81%D1%81%D0%B0%D0%B6%D0%B8%D1%80%D1%81%D0%BA%D0%BE%D0%BC%20%D1%81%D0%B0%D0%BB%D0%BE%D0%BD%D0%B5%C2%A0%D0%B8%D0%BB%D0%B8%20%D0%B2%C2%A0%D0%B1%D0%B0%D0%B3%D0%B0%D0%B6%D0%BD%D0%BE%D0%BC%20%D0%BE%D1%82%D1%81%D0%B5%D0%BA%D0%B5.%20%D0%94%D0%BB%D1%8F%20%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B8%20%D0%B2%20%D0%BF%D0%B0%D1%81%D1%81%D0%B0%D0%B6%D0%B8%D1%80%D1%81%D0%BA%D0%BE%D0%BC%20%D1%81%D0%B0%D0%BB%D0%BE%D0%BD%D0%B5%20%D0%B2%20%D0%BA%D0%B0%D1%87%D0%B5%D1%81%D1%82%D0%B2%D0%B5%20%D0%BA%D0%BE%D0%BD%D1%82%D0%B5%D0%B9%D0%BD%D0%B5%D1%80%D0%B0%20%D0%BC%D0%BE%D0%B6%D0%B5%D1%82%20%D0%B8%D1%81%D0%BF%D0%BE%D0%BB%D1%8C%D0%B7%D0%BE%D0%B2%D0%B0%D1%82%D1%8C%D1%81%D1%8F%20%D0%BC%D1%8F%D0%B3%D0%BA%D0%B0%D1%8F%20%D1%81%D1%83%D0%BC%D0%BA%D0%B0%2D%D0%BF%D0%B5%D1%80%D0%B5%D0%BD%D0%BE%D1%81%D0%BA%D0%B0%20%D0%B7%D0%B0%D0%BA%D1%80%D1%8B%D1%82%D0%BE%D0%B3%D0%BE%20%D1%82%D0%B8%D0%BF%D0%B0.</t>
   </si>
   <si>
+    <t>https://www.yakutia.aero/bagazh/vse-o-bagazhe/#:~:text=%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B0%20%D0%B4%D0%B5%D1%82%D1%81%D0%BA%D0%B8%D1%85%20%D1%83%D0%B4%D0%B5%D1%80%D0%B6%D0%B8%D0%B2%D0%B0%D1%8E%D1%89%D0%B8%D1%85%20%D1%83%D1%81%D1%82%D1%80%D0%BE%D0%B8%D1%81%D1%82%D0%B2%20%D0%B8%20%D0%B4%D0%B5%D1%82%D1%81%D0%BA%D0%B8%D1%85%20%D0%BA%D0%BE%D0%BB%D1%8F%D1%81%D0%BE%D0%BA</t>
+  </si>
+  <si>
     <t>https://www.yakutia.aero/bagazh/perevozka-sportivnogo-inventarya/#:~:text=%D0%9F%D0%B0%D1%81%D1%81%D0%B0%D0%B6%D0%B8%D1%80%20%D0%BC%D0%BE%D0%B6%D0%B5%D1%82%20%D0%B1%D0%B5%D1%81%D0%BF%D0%BB%D0%B0%D1%82%D0%BD%D0%BE%20%D0%BF%D1%80%D0%BE%D0%B2%D0%B5%D0%B7%D1%82%D0%B8%201%20%D0%BA%D0%BE%D0%BC%D0%BF%D0%BB%D0%B5%D0%BA%D1%82%20%D1%81%D0%BF%D0%BE%D1%80%D1%82%D0%B8%D0%B2%D0%BD%D0%BE%D0%B3%D0%BE%20%D0%B8%D0%BD%D0%B2%D0%B5%D0%BD%D1%82%D0%B0%D1%80%D1%8F%2C%20%D1%83%D0%BA%D0%B0%D0%B7%D0%B0%D0%BD%D0%BD%D1%8B%D0%B9%20%D0%B2%20%D1%82%D0%B0%D0%B1%D0%BB%D0%B8%D1%86%D0%B5%202%2C%20%D0%B2%20%D0%B4%D0%BE%D0%BF%D0%BE%D0%BB%D0%BD%D0%B5%D0%BD%D0%B8%D0%B5%20%D0%BA%20%D0%BE%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9%20%D0%BD%D0%BE%D1%80%D0%BC%D0%B5%20%D0%BF%D1%80%D0%BE%D0%B2%D0%BE%D0%B7%D0%B0%20%D0%B1%D0%B0%D0%B3%D0%B0%D0%B6%D0%B0%20%D0%BF%D1%80%D0%B8%20%D0%BE%D1%84%D0%BE%D1%80%D0%BC%D0%BB%D0%B5%D0%BD%D0%B8%D0%B8%20%D0%B1%D0%B8%D0%BB%D0%B5%D1%82%D0%B0%20%D0%BF%D0%BE%20%D0%B1%D0%B0%D0%B3%D0%B0%D0%B6%D0%BD%D0%BE%D0%BC%D1%83%20%D1%82%D0%B0%D1%80%D0%B8%D1%84%D1%83%20%D0%B8%20%D0%BF%D1%80%D0%B8%20%D0%BE%D1%84%D0%BE%D1%80%D0%BC%D0%BB%D0%B5%D0%BD%D0%B8%D0%B8%20%D1%83%D1%81%D0%BB%D1%83%D0%B3%D0%B8%20%C2%AB%D0%BF%D0%B0%D0%BA%D0%B5%D1%82%20%D0%B1%D0%B0%D0%B3%D0%B0%D0%B6%D0%B0%C2%BB%20%D0%BA%20%D0%B1%D0%B8%D0%BB%D0%B5%D1%82%D1%83%20%D0%B1%D0%B5%D0%B7%20%D0%B1%D0%B0%D0%B3%D0%B0%D0%B6%D0%B0</t>
   </si>
   <si>
-    <t>https://www.yakutia.aero/bagazh/vse-o-bagazhe/#:~:text=%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B0%20%D0%B4%D0%B5%D1%82%D1%81%D0%BA%D0%B8%D1%85%20%D1%83%D0%B4%D0%B5%D1%80%D0%B6%D0%B8%D0%B2%D0%B0%D1%8E%D1%89%D0%B8%D1%85%20%D1%83%D1%81%D1%82%D1%80%D0%BE%D0%B8%D1%81%D1%82%D0%B2%20%D0%B8%20%D0%B4%D0%B5%D1%82%D1%81%D0%BA%D0%B8%D1%85%20%D0%BA%D0%BE%D0%BB%D1%8F%D1%81%D0%BE%D0%BA</t>
-  </si>
-  <si>
     <t>https://www.yakutia.aero/informatsiya/pravila-perevozki-passazhirov-bagazha-i-gruza-/R3_rules_rev13.pdf</t>
   </si>
   <si>
@@ -143,34 +127,34 @@
     <t>азимут</t>
   </si>
   <si>
+    <t>https://azimuth.aero/ru/passengers/baggage/excess#:~:text=%D0%9E%D1%80%D1%83%D0%B6%D0%B8%D0%B5%20%D0%B8%20%D0%B1%D0%BE%D0%B5%D0%BF%D1%80%D0%B8%D0%BF%D0%B0%D1%81%D1%8B%20%D0%BA%20%D0%BD%D0%B5%D0%BC%D1%83</t>
+  </si>
+  <si>
+    <t>https://azimuth.aero/ru/passengers/baggage/flights-with-pets#:~:text=%D0%B6%D0%B8%D0%B2%D1%8B%D0%B5%20%D0%B6%D0%B8%D0%B2%D0%BE%D1%82%D0%BD%D1%8B%D0%B5%20%D0%BF%D1%80%D0%B8%D0%BD%D0%B8%D0%BC%D0%B0%D1%8E%D1%82%D1%81%D1%8F%20%D0%BA%20%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B5%20%D0%B2%20%D0%B1%D0%B0%D0%B3%D0%B0%D0%B6%D0%BD%D0%BE%2D%D0%B3%D1%80%D1%83%D0%B7%D0%BE%D0%B2%D0%BE%D0%BC%20%D0%BE%D1%82%D1%81%D0%B5%D0%BA%D0%B5%20%D0%BF%D1%80%D0%B8%20%D1%83%D1%81%D0%BB%D0%BE%D0%B2%D0%B8%D0%B8%2C%20%D1%87%D1%82%D0%BE%20%D1%82%D0%B5%D0%BC%D0%BF%D0%B5%D1%80%D0%B0%D1%82%D1%83%D1%80%D0%B0%20%D0%BE%D1%82%20%2B10%C2%B0%D0%A1%20%D0%B4%D0%BE%20%2B20%C2%B0%D0%A1%20%D0%BD%D0%B5%20%D1%8F%D0%B2%D0%BB%D1%8F%D0%B5%D1%82%D1%81%D1%8F%20%D0%BA%D1%80%D0%B8%D1%82%D0%B8%D1%87%D0%BD%D0%BE%D0%B9%20%D0%B4%D0%BB%D1%8F%20%D0%B6%D0%B8%D0%B2%D0%BE%D1%82%D0%BD%D0%BE%D0%B3%D0%BE.</t>
+  </si>
+  <si>
+    <t>Животные (Салон)</t>
+  </si>
+  <si>
+    <t>https://azimuth.aero/ru/passengers/baggage/flights-with-pets#:~:text=%D0%93%D0%B0%D0%B1%D0%B0%D1%80%D0%B8%D1%82%D1%8B%20%D0%BA%D0%BE%D0%BD%D1%82%D0%B5%D0%B9%D0%BD%D0%B5%D1%80%D0%B0%20%D0%B2%D0%BC%D0%B5%D1%81%D1%82%D0%B5%20%D1%81%20%D0%B6%D0%B8%D0%B2%D0%BE%D1%82%D0%BD%D1%8B%D0%BC</t>
+  </si>
+  <si>
+    <t>https://azimuth.aero/ru/passengers/baggage/li-ion#:~:text=%D0%9B%D0%B8%D1%82%D0%B8%D0%B9%2D%D0%B8%D0%BE%D0%BD%D0%BD%D1%8B%D0%B5%20%D0%B0%D0%BA%D0%BA%D1%83%D0%BC%D1%83%D0%BB%D1%8F%D1%82%D0%BE%D1%80%D1%8B%20%D1%81%20%D1%83%D0%B4%D0%B5%D0%BB%D1%8C%D0%BD%D0%BE%D0%B9%20%D0%BC%D0%BE%D1%89%D0%BD%D0%BE%D1%81%D1%82%D1%8C%D1%8E%20%D0%B1%D0%BE%D0%BB%D0%B5%D0%B5%20160%20%D0%92%D1%82%D1%87</t>
+  </si>
+  <si>
+    <t>https://azimuth.aero/ru/passengers/baggage/excess#:~:text=%D0%A3%D1%81%D0%BB%D0%BE%D0%B2%D0%B8%D1%8F%20%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B8%20%D0%BE%D1%81%D0%BE%D0%B1%D0%BE%D0%B3%D0%BE%20(%D0%BD%D0%B5%D1%81%D1%82%D0%B0%D0%BD%D0%B4%D0%B0%D1%80%D1%82%D0%BD%D0%BE%D0%B3%D0%BE)%20%D0%B1%D0%B0%D0%B3%D0%B0%D0%B6%D0%B0</t>
+  </si>
+  <si>
     <t>Условия перевозки особого (нестандартного) багажа</t>
   </si>
   <si>
-    <t>https://azimuth.aero/ru/passengers/baggage/excess#:~:text=%D0%A3%D1%81%D0%BB%D0%BE%D0%B2%D0%B8%D1%8F%20%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B8%20%D0%BE%D1%81%D0%BE%D0%B1%D0%BE%D0%B3%D0%BE%20(%D0%BD%D0%B5%D1%81%D1%82%D0%B0%D0%BD%D0%B4%D0%B0%D1%80%D1%82%D0%BD%D0%BE%D0%B3%D0%BE)%20%D0%B1%D0%B0%D0%B3%D0%B0%D0%B6%D0%B0</t>
-  </si>
-  <si>
-    <t>https://azimuth.aero/ru/passengers/baggage/excess#:~:text=%D0%9E%D1%80%D1%83%D0%B6%D0%B8%D0%B5%20%D0%B8%20%D0%B1%D0%BE%D0%B5%D0%BF%D1%80%D0%B8%D0%BF%D0%B0%D1%81%D1%8B%20%D0%BA%20%D0%BD%D0%B5%D0%BC%D1%83</t>
-  </si>
-  <si>
-    <t>https://azimuth.aero/ru/passengers/baggage/flights-with-pets#:~:text=%D0%B6%D0%B8%D0%B2%D1%8B%D0%B5%20%D0%B6%D0%B8%D0%B2%D0%BE%D1%82%D0%BD%D1%8B%D0%B5%20%D0%BF%D1%80%D0%B8%D0%BD%D0%B8%D0%BC%D0%B0%D1%8E%D1%82%D1%81%D1%8F%20%D0%BA%20%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B5%20%D0%B2%20%D0%B1%D0%B0%D0%B3%D0%B0%D0%B6%D0%BD%D0%BE%2D%D0%B3%D1%80%D1%83%D0%B7%D0%BE%D0%B2%D0%BE%D0%BC%20%D0%BE%D1%82%D1%81%D0%B5%D0%BA%D0%B5%20%D0%BF%D1%80%D0%B8%20%D1%83%D1%81%D0%BB%D0%BE%D0%B2%D0%B8%D0%B8%2C%20%D1%87%D1%82%D0%BE%20%D1%82%D0%B5%D0%BC%D0%BF%D0%B5%D1%80%D0%B0%D1%82%D1%83%D1%80%D0%B0%20%D0%BE%D1%82%20%2B10%C2%B0%D0%A1%20%D0%B4%D0%BE%20%2B20%C2%B0%D0%A1%20%D0%BD%D0%B5%20%D1%8F%D0%B2%D0%BB%D1%8F%D0%B5%D1%82%D1%81%D1%8F%20%D0%BA%D1%80%D0%B8%D1%82%D0%B8%D1%87%D0%BD%D0%BE%D0%B9%20%D0%B4%D0%BB%D1%8F%20%D0%B6%D0%B8%D0%B2%D0%BE%D1%82%D0%BD%D0%BE%D0%B3%D0%BE.</t>
-  </si>
-  <si>
-    <t>Животные (Салон)</t>
-  </si>
-  <si>
-    <t>https://azimuth.aero/ru/passengers/baggage/flights-with-pets#:~:text=%D0%93%D0%B0%D0%B1%D0%B0%D1%80%D0%B8%D1%82%D1%8B%20%D0%BA%D0%BE%D0%BD%D1%82%D0%B5%D0%B9%D0%BD%D0%B5%D1%80%D0%B0%20%D0%B2%D0%BC%D0%B5%D1%81%D1%82%D0%B5%20%D1%81%20%D0%B6%D0%B8%D0%B2%D0%BE%D1%82%D0%BD%D1%8B%D0%BC</t>
-  </si>
-  <si>
-    <t>https://azimuth.aero/ru/passengers/baggage/li-ion#:~:text=%D0%9B%D0%B8%D1%82%D0%B8%D0%B9%2D%D0%B8%D0%BE%D0%BD%D0%BD%D1%8B%D0%B5%20%D0%B0%D0%BA%D0%BA%D1%83%D0%BC%D1%83%D0%BB%D1%8F%D1%82%D0%BE%D1%80%D1%8B%20%D1%81%20%D1%83%D0%B4%D0%B5%D0%BB%D1%8C%D0%BD%D0%BE%D0%B9%20%D0%BC%D0%BE%D1%89%D0%BD%D0%BE%D1%81%D1%82%D1%8C%D1%8E%20%D0%B1%D0%BE%D0%BB%D0%B5%D0%B5%20160%20%D0%92%D1%82%D1%87</t>
+    <t>Победа</t>
+  </si>
+  <si>
+    <t>https://www.pobeda.aero/ru/information/travel/transport_regulations/app3/#:~:text=%D0%B2%20%D1%83%D0%BF%D0%B0%D0%BA%D0%BE%D0%B2%D0%BE%D1%87%D0%BD%D1%83%D1%8E%20%D0%BB%D0%B5%D0%BD%D1%82%D1%83.-,%D0%9F%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B0%20%D0%BE%D1%80%D1%83%D0%B6%D0%B8%D1%8F%2C%20%D0%B1%D0%BE%D0%B5%D0%BF%D1%80%D0%B8%D0%BF%D0%B0%D1%81%D0%BE%D0%B2%20%D0%B8%20%D1%81%D0%BF%D0%B5%D1%86%D0%B8%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D1%85%20%D1%81%D1%80%D0%B5%D0%B4%D1%81%D1%82%D0%B2,-%D0%9F%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D1%83%20%D0%BE%D1%80%D1%83%D0%B6%D0%B8%D1%8F%20%D0%B8</t>
   </si>
   <si>
     <t>https://www.pobeda.aero/ru/information/service/perevozka-zhivotnykh/</t>
-  </si>
-  <si>
-    <t>Победа</t>
-  </si>
-  <si>
-    <t>https://www.pobeda.aero/ru/information/travel/transport_regulations/app3/#:~:text=%D0%B2%20%D1%83%D0%BF%D0%B0%D0%BA%D0%BE%D0%B2%D0%BE%D1%87%D0%BD%D1%83%D1%8E%20%D0%BB%D0%B5%D0%BD%D1%82%D1%83.-,%D0%9F%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B0%20%D0%BE%D1%80%D1%83%D0%B6%D0%B8%D1%8F%2C%20%D0%B1%D0%BE%D0%B5%D0%BF%D1%80%D0%B8%D0%BF%D0%B0%D1%81%D0%BE%D0%B2%20%D0%B8%20%D1%81%D0%BF%D0%B5%D1%86%D0%B8%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D1%85%20%D1%81%D1%80%D0%B5%D0%B4%D1%81%D1%82%D0%B2,-%D0%9F%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D1%83%20%D0%BE%D1%80%D1%83%D0%B6%D0%B8%D1%8F%20%D0%B8</t>
   </si>
   <si>
     <t>https://www.pobeda.aero/ru/information/travel/baggage-rules/#:~:text=%D0%97%D0%B0%20%D0%B4%D0%BE%D0%BF%D0%BE%D0%BB%D0%BD%D0%B8%D1%82%D0%B5%D0%BB%D1%8C%D0%BD%D1%83%D1%8E%20%D0%BF%D0%BB%D0%B0%D1%82%D1%83%20%D0%B2%D1%8B%20%D0%BC%D0%BE%D0%B6%D0%B5%D1%82%D0%B5%20%D0%BE%D1%84%D0%BE%D1%80%D0%BC%D0%B8%D1%82%D1%8C%20%D0%BD%D0%B5%D0%BA%D0%BE%D1%82%D0%BE%D1%80%D1%8B%D0%B9%20%D1%81%D0%BF%D0%BE%D1%80%D1%82%D0%B8%D0%B2%D0%BD%D1%8B%D0%B9%20%D0%B8%D0%BD%D0%B2%D0%B5%D0%BD%D1%82%D0%B0%D1%80%D1%8C%20%D0%BA%D0%B0%D0%BA%20%D1%81%D0%BF%D0%B5%D1%86%D0%B8%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B9%20%D0%B1%D0%B0%D0%B3%D0%B0%D0%B6.</t>
@@ -183,31 +167,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,7 +203,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -227,21 +219,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -254,9 +260,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,20 +294,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -329,31 +335,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -381,26 +370,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,156 +381,184 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63761CD2-A646-F64A-B870-490B6E6D3A44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,10 +566,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -577,396 +577,390 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="C31" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
       <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5D322FD8-FF66-344F-AAFB-5C0A94CB8558}"/>
-    <hyperlink ref="C4" r:id="rId2" location="prepaid_baggage_rules#aria-baggage_tab3" xr:uid="{845E8816-9F71-CC42-A1FF-C3A324FB2B36}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{942D5481-2D13-5F43-8A35-BBF23A090412}"/>
-    <hyperlink ref="D30" r:id="rId4" location=":~:text=%D1%83%D1%81%D0%BB%D0%BE%D0%B2%D0%B8%D1%8F%20%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B8%20%D0%BE%D1%81%D0%BE%D0%B1%D0%BE%D0%B3%D0%BE%20(%D0%BD%D0%B5%D1%81%D1%82%D0%B0%D0%BD%D0%B4%D0%B0%D1%80%D1%82%D0%BD%D0%BE%D0%B3%D0%BE)%20%D0%B1%D0%B0%D0%B3%D0%B0%D0%B6%D0%B0" display="https://azimuth.aero/ru/passengers/baggage/excess - :~:text=%D1%83%D1%81%D0%BB%D0%BE%D0%B2%D0%B8%D1%8F%20%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B8%20%D0%BE%D1%81%D0%BE%D0%B1%D0%BE%D0%B3%D0%BE%20(%D0%BD%D0%B5%D1%81%D1%82%D0%B0%D0%BD%D0%B4%D0%B0%D1%80%D1%82%D0%BD%D0%BE%D0%B3%D0%BE)%20%D0%B1%D0%B0%D0%B3%D0%B0%D0%B6%D0%B0" xr:uid="{8BD6D2EC-E8B9-1846-8ECE-31BE68C8AA7E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ссылки.xlsx
+++ b/Ссылки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/lll/prj/Проект СОП Бот/PS_prj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFB97D0-A427-B344-A1AD-F76F95FB3318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11394EEB-9B8C-0545-BD89-FFB23E0FEC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
   <si>
     <t>Аэрофлот</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>https://www.pobeda.aero/ru/information/travel/transport_regulations/app3/#:~:text=%D1%81%D0%BE%D0%B4%D0%B5%D1%80%D0%B6%D0%B0%D1%89%D0%B8%D0%B5%20%D0%B2%D0%B7%D1%80%D1%8B%D0%B2%D1%87%D0%B0%D1%82%D1%8B%D0%B5%20%D0%B2%D0%B5%D1%89%D0%B5%D1%81%D1%82%D0%B2%D0%B0-,%D0%9F%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B0%20%D0%BF%D1%80%D0%B0%D1%85%D0%B0,-%D0%9F%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B0%20%D0%B2%20%D1%81%D0%B0%D0%BB%D0%BE%D0%BD%D0%B5</t>
+  </si>
+  <si>
+    <t>Мед</t>
+  </si>
+  <si>
+    <t>Ответа нет. Это тестю</t>
+  </si>
+  <si>
+    <t>Глобус</t>
   </si>
 </sst>
 </file>
@@ -547,9 +556,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -960,6 +971,17 @@
         <v>46</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
